--- a/offloader/Episodes/ep10_-_Fact/math/cf.xlsx
+++ b/offloader/Episodes/ep10_-_Fact/math/cf.xlsx
@@ -28,28 +28,28 @@
     <t xml:space="preserve">M=</t>
   </si>
   <si>
-    <t xml:space="preserve">Y=</t>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">p</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">w</t>
   </si>
   <si>
-    <t xml:space="preserve">Z</t>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">r</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">W</t>
+    <t xml:space="preserve">check1</t>
   </si>
   <si>
-    <t xml:space="preserve">CHECK</t>
+    <t xml:space="preserve">check2</t>
   </si>
 </sst>
 </file>
@@ -82,12 +82,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,13 +130,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -142,6 +152,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,10 +220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -165,586 +235,906 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="B1" s="2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(SQRT(B1))</f>
         <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">B1-B2*B2</f>
-        <v>34</v>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1</v>
+        <f aca="false">F1</f>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <f aca="false">B1-F1*F1</f>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">A6+B$2</f>
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C6/B6)</f>
-        <v>46</v>
+        <f aca="false">2*F1</f>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="n">
-        <f aca="false">C6-D6*B6</f>
-        <v>0</v>
+        <f aca="false">D6-B6*F6</f>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">MOD(A6*A6*F6,B$1)-B6</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D6/B6)</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">MOD(A6*A6-B6*C6, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">(D6-$F$1)*(D6-$F$1)+B6*B5</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <f aca="false">B2</f>
+        <f aca="false">MOD(F6*A6+A5,$B$1)</f>
+        <v>91</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">B5+F6*(E6-E5)</f>
         <v>45</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">B3</f>
-        <v>34</v>
-      </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">A7+B$2</f>
-        <v>90</v>
+        <f aca="false">-C6</f>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C7/B7)</f>
-        <v>2</v>
+        <f aca="false">2*$F$1-E6</f>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="n">
-        <f aca="false">C7-D7*B7</f>
-        <v>22</v>
+        <f aca="false">D7-B7*F7</f>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
-        <f aca="false">-F6</f>
-        <v>-1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">MOD(A7*A7*F7,B$1)-B7</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D7/B7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">MOD(A7*A7-B7*C7, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">(D7-$F$1)*(D7-$F$1)+B7*B6</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <f aca="false">MOD((D7*A7+A6), B$1)</f>
-        <v>91</v>
+        <f aca="false">MOD(F7*A7+A6,$B$1)</f>
+        <v>136</v>
       </c>
       <c r="B8" s="0" t="n">
-        <f aca="false">B6+D7*(E7-E6)</f>
-        <v>45</v>
+        <f aca="false">B6+F7*(E7-E6)</f>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">2*B$2-E7</f>
-        <v>68</v>
+        <f aca="false">-C7</f>
+        <v>-1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C8/B8)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E7</f>
+        <v>67</v>
       </c>
       <c r="E8" s="0" t="n">
-        <f aca="false">C8-D8*B8</f>
-        <v>23</v>
+        <f aca="false">D8-B8*F8</f>
+        <v>32</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">-F7</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">MOD(A8*A8*F8,B$1)-B8</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D8/B8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">MOD(A8*A8-B8*C8, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">(D8-$F$1)*(D8-$F$1)+B8*B7</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <f aca="false">MOD((D8*A8+A7), B$1)</f>
-        <v>136</v>
+        <f aca="false">MOD(F8*A8+A7,$B$1)</f>
+        <v>227</v>
       </c>
       <c r="B9" s="0" t="n">
-        <f aca="false">B7+D8*(E8-E7)</f>
-        <v>35</v>
+        <f aca="false">B7+F8*(E8-E7)</f>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="n">
-        <f aca="false">2*B$2-E8</f>
-        <v>67</v>
+        <f aca="false">-C8</f>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C9/B9)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E8</f>
+        <v>58</v>
       </c>
       <c r="E9" s="0" t="n">
-        <f aca="false">C9-D9*B9</f>
-        <v>32</v>
+        <f aca="false">D9-B9*F9</f>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <f aca="false">-F8</f>
-        <v>-1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">MOD(A9*A9*F9,B$1)-B9</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D9/B9)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">MOD(A9*A9-B9*C9, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">(D9-$F$1)*(D9-$F$1)+B9*B8</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <f aca="false">MOD((D9*A9+A8), B$1)</f>
-        <v>227</v>
+        <f aca="false">MOD(F9*A9+A8,$B$1)</f>
+        <v>363</v>
       </c>
       <c r="B10" s="0" t="n">
-        <f aca="false">B8+D9*(E9-E8)</f>
-        <v>54</v>
+        <f aca="false">B8+F9*(E9-E8)</f>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="n">
-        <f aca="false">2*B$2-E9</f>
-        <v>58</v>
+        <f aca="false">-C9</f>
+        <v>-1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C10/B10)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E9</f>
+        <v>86</v>
       </c>
       <c r="E10" s="0" t="n">
-        <f aca="false">C10-D10*B10</f>
-        <v>4</v>
+        <f aca="false">D10-B10*F10</f>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <f aca="false">-F9</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">MOD(A10*A10*F10,B$1)-B10</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D10/B10)</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">MOD(A10*A10-B10*C10, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">(D10-$F$1)*(D10-$F$1)+B10*B9</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <f aca="false">MOD((D10*A10+A9), B$1)</f>
-        <v>363</v>
+        <f aca="false">MOD(F10*A10+A9,$B$1)</f>
+        <v>465</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">B9+D10*(E10-E9)</f>
-        <v>7</v>
+        <f aca="false">B9+F10*(E10-E9)</f>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">2*B$2-E10</f>
-        <v>86</v>
+        <f aca="false">-C10</f>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C11/B11)</f>
-        <v>12</v>
+        <f aca="false">2*$F$1-E10</f>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="n">
-        <f aca="false">C11-D11*B11</f>
+        <f aca="false">D11-B11*F11</f>
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D11/B11)</f>
         <v>2</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">-F10</f>
-        <v>-1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">MOD(A11*A11*F11,B$1)-B11</f>
-        <v>0</v>
+      <c r="H11" s="1" t="n">
+        <f aca="false">MOD(A11*A11-B11*C11, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">(D11-$F$1)*(D11-$F$1)+B11*B10</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <f aca="false">MOD((D11*A11+A10), B$1)</f>
-        <v>465</v>
+        <f aca="false">MOD(F11*A11+A10,$B$1)</f>
+        <v>1293</v>
       </c>
       <c r="B12" s="0" t="n">
-        <f aca="false">B10+D11*(E11-E10)</f>
-        <v>30</v>
+        <f aca="false">B10+F11*(E11-E10)</f>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false">2*B$2-E11</f>
-        <v>88</v>
+        <f aca="false">-C11</f>
+        <v>-1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C12/B12)</f>
-        <v>2</v>
+        <f aca="false">2*$F$1-E11</f>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="n">
-        <f aca="false">C12-D12*B12</f>
-        <v>28</v>
+        <f aca="false">D12-B12*F12</f>
+        <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">-F11</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">MOD(A12*A12*F12,B$1)-B12</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D12/B12)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">MOD(A12*A12-B12*C12, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">(D12-$F$1)*(D12-$F$1)+B12*B11</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <f aca="false">MOD((D12*A12+A11), B$1)</f>
-        <v>1293</v>
+        <f aca="false">MOD(F12*A12+A11,$B$1)</f>
+        <v>1758</v>
       </c>
       <c r="B13" s="0" t="n">
-        <f aca="false">B11+D12*(E12-E11)</f>
-        <v>59</v>
+        <f aca="false">B11+F12*(E12-E11)</f>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="n">
-        <f aca="false">2*B$2-E12</f>
-        <v>62</v>
+        <f aca="false">-C12</f>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C13/B13)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E12</f>
+        <v>87</v>
       </c>
       <c r="E13" s="0" t="n">
-        <f aca="false">C13-D13*B13</f>
-        <v>3</v>
+        <f aca="false">D13-B13*F13</f>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <f aca="false">-F12</f>
-        <v>-1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">MOD(A13*A13*F13,B$1)-B13</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D13/B13)</f>
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">MOD(A13*A13-B13*C13, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">(D13-$F$1)*(D13-$F$1)+B13*B12</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <f aca="false">MOD((D13*A13+A12), B$1)</f>
-        <v>1758</v>
+        <f aca="false">MOD(F13*A13+A12,$B$1)</f>
+        <v>294</v>
       </c>
       <c r="B14" s="0" t="n">
-        <f aca="false">B12+D13*(E13-E12)</f>
-        <v>5</v>
+        <f aca="false">B12+F13*(E13-E12)</f>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">2*B$2-E13</f>
-        <v>87</v>
+        <f aca="false">-C13</f>
+        <v>-1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C14/B14)</f>
-        <v>17</v>
+        <f aca="false">2*$F$1-E13</f>
+        <v>88</v>
       </c>
       <c r="E14" s="0" t="n">
-        <f aca="false">C14-D14*B14</f>
+        <f aca="false">D14-B14*F14</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D14/B14)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">-F13</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">MOD(A14*A14*F14,B$1)-B14</f>
-        <v>0</v>
+      <c r="H14" s="1" t="n">
+        <f aca="false">MOD(A14*A14-B14*C14, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">(D14-$F$1)*(D14-$F$1)+B14*B13</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <f aca="false">MOD((D14*A14+A13), B$1)</f>
-        <v>294</v>
+        <f aca="false">MOD(F14*A14+A13,$B$1)</f>
+        <v>287</v>
       </c>
       <c r="B15" s="0" t="n">
-        <f aca="false">B13+D14*(E14-E13)</f>
-        <v>42</v>
+        <f aca="false">B13+F14*(E14-E13)</f>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="n">
-        <f aca="false">2*B$2-E14</f>
-        <v>88</v>
+        <f aca="false">-C14</f>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C15/B15)</f>
-        <v>2</v>
+        <f aca="false">2*$F$1-E14</f>
+        <v>86</v>
       </c>
       <c r="E15" s="0" t="n">
-        <f aca="false">C15-D15*B15</f>
-        <v>4</v>
+        <f aca="false">D15-B15*F15</f>
+        <v>5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <f aca="false">-F14</f>
-        <v>-1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">MOD(A15*A15*F15,B$1)-B15</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D15/B15)</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">MOD(A15*A15-B15*C15, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">(D15-$F$1)*(D15-$F$1)+B15*B14</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <f aca="false">MOD((D15*A15+A14), B$1)</f>
-        <v>287</v>
+        <f aca="false">MOD(F15*A15+A14,$B$1)</f>
+        <v>818</v>
       </c>
       <c r="B16" s="0" t="n">
-        <f aca="false">B14+D15*(E15-E14)</f>
-        <v>9</v>
+        <f aca="false">B14+F15*(E15-E14)</f>
+        <v>51</v>
       </c>
       <c r="C16" s="0" t="n">
-        <f aca="false">2*B$2-E15</f>
-        <v>86</v>
+        <f aca="false">-C15</f>
+        <v>-1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C16/B16)</f>
-        <v>9</v>
+        <f aca="false">2*$F$1-E15</f>
+        <v>85</v>
       </c>
       <c r="E16" s="0" t="n">
-        <f aca="false">C16-D16*B16</f>
-        <v>5</v>
+        <f aca="false">D16-B16*F16</f>
+        <v>34</v>
       </c>
       <c r="F16" s="0" t="n">
-        <f aca="false">-F15</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">MOD(A16*A16*F16,B$1)-B16</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D16/B16)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">MOD(A16*A16-B16*C16, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">(D16-$F$1)*(D16-$F$1)+B16*B15</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <f aca="false">MOD((D16*A16+A15), B$1)</f>
-        <v>818</v>
+        <f aca="false">MOD(F16*A16+A15,$B$1)</f>
+        <v>1105</v>
       </c>
       <c r="B17" s="0" t="n">
-        <f aca="false">B15+D16*(E16-E15)</f>
-        <v>51</v>
+        <f aca="false">B15+F16*(E16-E15)</f>
+        <v>38</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">2*B$2-E16</f>
-        <v>85</v>
+        <f aca="false">-C16</f>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C17/B17)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E16</f>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="n">
-        <f aca="false">C17-D17*B17</f>
-        <v>34</v>
+        <f aca="false">D17-B17*F17</f>
+        <v>18</v>
       </c>
       <c r="F17" s="0" t="n">
-        <f aca="false">-F16</f>
-        <v>-1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">MOD(A17*A17*F17,B$1)-B17</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D17/B17)</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">MOD(A17*A17-B17*C17, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">(D17-$F$1)*(D17-$F$1)+B17*B16</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <f aca="false">MOD((D17*A17+A16), B$1)</f>
-        <v>1105</v>
+        <f aca="false">MOD(F17*A17+A16,$B$1)</f>
+        <v>1923</v>
       </c>
       <c r="B18" s="0" t="n">
-        <f aca="false">B16+D17*(E17-E16)</f>
-        <v>38</v>
+        <f aca="false">B16+F17*(E17-E16)</f>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">2*B$2-E17</f>
-        <v>56</v>
+        <f aca="false">-C17</f>
+        <v>-1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C18/B18)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E17</f>
+        <v>72</v>
       </c>
       <c r="E18" s="0" t="n">
-        <f aca="false">C18-D18*B18</f>
-        <v>18</v>
+        <f aca="false">D18-B18*F18</f>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <f aca="false">-F17</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">MOD(A18*A18*F18,B$1)-B18</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D18/B18)</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">MOD(A18*A18-B18*C18, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">(D18-$F$1)*(D18-$F$1)+B18*B17</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <f aca="false">MOD((D18*A18+A17), B$1)</f>
-        <v>1923</v>
+        <f aca="false">MOD(F18*A18+A17,$B$1)</f>
+        <v>833</v>
       </c>
       <c r="B19" s="0" t="n">
-        <f aca="false">B17+D18*(E18-E17)</f>
-        <v>35</v>
+        <f aca="false">B17+F18*(E18-E17)</f>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="n">
-        <f aca="false">2*B$2-E18</f>
-        <v>72</v>
+        <f aca="false">-C18</f>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C19/B19)</f>
-        <v>2</v>
+        <f aca="false">2*$F$1-E18</f>
+        <v>88</v>
       </c>
       <c r="E19" s="0" t="n">
-        <f aca="false">C19-D19*B19</f>
-        <v>2</v>
+        <f aca="false">D19-B19*F19</f>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="n">
-        <f aca="false">-F18</f>
-        <v>-1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">MOD(A19*A19*F19,B$1)-B19</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D19/B19)</f>
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">MOD(A19*A19-B19*C19, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">(D19-$F$1)*(D19-$F$1)+B19*B18</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <f aca="false">MOD((D19*A19+A18), B$1)</f>
-        <v>833</v>
+        <f aca="false">MOD(F19*A19+A18,$B$1)</f>
+        <v>1231</v>
       </c>
       <c r="B20" s="0" t="n">
-        <f aca="false">B18+D19*(E19-E18)</f>
-        <v>6</v>
+        <f aca="false">B18+F19*(E19-E18)</f>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="n">
-        <f aca="false">2*B$2-E19</f>
-        <v>88</v>
+        <f aca="false">-C19</f>
+        <v>-1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C20/B20)</f>
-        <v>14</v>
+        <f aca="false">2*$F$1-E19</f>
+        <v>86</v>
       </c>
       <c r="E20" s="0" t="n">
-        <f aca="false">C20-D20*B20</f>
-        <v>4</v>
+        <f aca="false">D20-B20*F20</f>
+        <v>23</v>
       </c>
       <c r="F20" s="0" t="n">
-        <f aca="false">-F19</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">MOD(A20*A20*F20,B$1)-B20</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D20/B20)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">MOD(A20*A20-B20*C20, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">(D20-$F$1)*(D20-$F$1)+B20*B19</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <f aca="false">MOD((D20*A20+A19), B$1)</f>
-        <v>1231</v>
+        <f aca="false">MOD(F20*A20+A19,$B$1)</f>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="n">
-        <f aca="false">B19+D20*(E20-E19)</f>
-        <v>63</v>
+        <f aca="false">B19+F20*(E20-E19)</f>
+        <v>25</v>
       </c>
       <c r="C21" s="0" t="n">
-        <f aca="false">2*B$2-E20</f>
-        <v>86</v>
+        <f aca="false">-C20</f>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C21/B21)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E20</f>
+        <v>67</v>
       </c>
       <c r="E21" s="0" t="n">
-        <f aca="false">C21-D21*B21</f>
-        <v>23</v>
+        <f aca="false">D21-B21*F21</f>
+        <v>17</v>
       </c>
       <c r="F21" s="0" t="n">
-        <f aca="false">-F20</f>
-        <v>-1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">MOD(A21*A21*F21,B$1)-B21</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D21/B21)</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">MOD(A21*A21-B21*C21, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">(D21-$F$1)*(D21-$F$1)+B21*B20</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <f aca="false">MOD((D21*A21+A20), B$1)</f>
-        <v>5</v>
+        <f aca="false">MOD(F21*A21+A20,$B$1)</f>
+        <v>1241</v>
       </c>
       <c r="B22" s="0" t="n">
-        <f aca="false">B20+D21*(E21-E20)</f>
-        <v>25</v>
+        <f aca="false">B20+F21*(E21-E20)</f>
+        <v>51</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">2*B$2-E21</f>
-        <v>67</v>
+        <f aca="false">-C21</f>
+        <v>-1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C22/B22)</f>
-        <v>2</v>
+        <f aca="false">2*$F$1-E21</f>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="n">
-        <f aca="false">C22-D22*B22</f>
-        <v>17</v>
+        <f aca="false">D22-B22*F22</f>
+        <v>22</v>
       </c>
       <c r="F22" s="0" t="n">
-        <f aca="false">-F21</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">MOD(A22*A22*F22,B$1)-B22</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D22/B22)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">MOD(A22*A22-B22*C22, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">(D22-$F$1)*(D22-$F$1)+B22*B21</f>
+        <v>2059</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <f aca="false">MOD((D22*A22+A21), B$1)</f>
-        <v>1241</v>
+        <f aca="false">MOD(F22*A22+A21,$B$1)</f>
+        <v>1246</v>
       </c>
       <c r="B23" s="0" t="n">
-        <f aca="false">B21+D22*(E22-E21)</f>
-        <v>51</v>
+        <f aca="false">B21+F22*(E22-E21)</f>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
-        <f aca="false">2*B$2-E22</f>
-        <v>73</v>
+        <f aca="false">-C22</f>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(C23/B23)</f>
-        <v>1</v>
+        <f aca="false">2*$F$1-E22</f>
+        <v>68</v>
       </c>
       <c r="E23" s="0" t="n">
-        <f aca="false">C23-D23*B23</f>
-        <v>22</v>
+        <f aca="false">D23-B23*F23</f>
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="n">
-        <f aca="false">-F22</f>
-        <v>-1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">MOD(A23*A23*F23,B$1)-B23</f>
-        <v>0</v>
+        <f aca="false">_xlfn.FLOOR.MATH(D23/B23)</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">MOD(A23*A23-B23*C23, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">(D23-$F$1)*(D23-$F$1)+B23*B22</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">MOD(F23*A23+A22,$B$1)</f>
+        <v>1674</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B22+F23*(E23-E22)</f>
+        <v>23</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">-C23</f>
+        <v>-1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">2*$F$1-E23</f>
+        <v>82</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">D24-B24*F24</f>
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D24/B24)</f>
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">MOD(A24*A24-B24*C24, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">(D24-$F$1)*(D24-$F$1)+B24*B23</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">MOD(F24*A24+A23,$B$1)</f>
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">B23+F24*(E24-E23)</f>
+        <v>45</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">-C24</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">2*$F$1-E24</f>
+        <v>77</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">D25-B25*F25</f>
+        <v>32</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D25/B25)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">MOD(A25*A25-B25*C25, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">(D25-$F$1)*(D25-$F$1)+B25*B24</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <f aca="false">MOD(F25*A25+A24,$B$1)</f>
+        <v>1765</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">B24+F25*(E25-E24)</f>
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">-C25</f>
+        <v>-1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">2*$F$1-E25</f>
+        <v>58</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">D26-B26*F26</f>
+        <v>16</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D26/B26)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">MOD(A26*A26-B26*C26, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(D26-$F$1)*(D26-$F$1)+B26*B25</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">MOD(F26*A26+A25,$B$1)</f>
+        <v>1856</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">B25+F26*(E26-E25)</f>
+        <v>29</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">-C26</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">2*$F$1-E26</f>
+        <v>74</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">D27-B27*F27</f>
+        <v>16</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D27/B27)</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">MOD(A27*A27-B27*C27, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">(D27-$F$1)*(D27-$F$1)+B27*B26</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">MOD(F27*A27+A26,$B$1)</f>
+        <v>1359</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">B26+F27*(E27-E26)</f>
+        <v>42</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">-C27</f>
+        <v>-1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">2*$F$1-E27</f>
+        <v>74</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">D28-B28*F28</f>
+        <v>32</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D28/B28)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">MOD(A28*A28-B28*C28, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">(D28-$F$1)*(D28-$F$1)+B28*B27</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">MOD(F28*A28+A27,$B$1)</f>
+        <v>1156</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">B27+F28*(E28-E27)</f>
+        <v>45</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">-C28</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">2*$F$1-E28</f>
+        <v>58</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">D29-B29*F29</f>
+        <v>13</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D29/B29)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">MOD(A29*A29-B29*C29, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">(D29-$F$1)*(D29-$F$1)+B29*B28</f>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">MOD(F29*A29+A28,$B$1)</f>
+        <v>456</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">B28+F29*(E29-E28)</f>
+        <v>23</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">-C29</f>
+        <v>-1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">2*$F$1-E29</f>
+        <v>77</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">D30-B30*F30</f>
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(D30/B30)</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">MOD(A30*A30-B30*C30, $B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">(D30-$F$1)*(D30-$F$1)+B30*B29</f>
+        <v>2059</v>
       </c>
     </row>
   </sheetData>
